--- a/medicine/Enfance/Gudrun_Pausewang/Gudrun_Pausewang.xlsx
+++ b/medicine/Enfance/Gudrun_Pausewang/Gudrun_Pausewang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gudrun Pausewang, épouse Wilcke, est une femme de lettres allemande née le 3 mars 1928 à Wichstadl en Bohême (Tchécoslovaquie) et morte le 23 janvier 2020 à Bamberg (Allemagne)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gudrun Pausewang, épouse Wilcke, est une femme de lettres allemande née le 3 mars 1928 à Wichstadl en Bohême (Tchécoslovaquie) et morte le 23 janvier 2020 à Bamberg (Allemagne).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gudrun Pausewang est née en 1928 en Bohême orientale. Elle était l'aînée de six enfants. Après l'école fondamentale, elle fréquenta un lycée de jeunes filles. Son père mourut au cours de la Seconde Guerre mondiale, alors qu'elle n'avait que quinze ans. Une fois la guerre terminée, à l'âge de dix-sept ans, elle s'enfuit avec sa famille pour l'Allemagne de l'Ouest. Elle continua ses études à Wiesbaden (dans la Hesse) et obtint le baccalauréat en 1948. Elle entreprit ensuite des études de pédagogie et enseigna comme institutrice.
 À partir de 1956, elle enseigna au Chili, à l'École allemande, puis cinq ans plus tard, au Venezuela. Elle séjourna sept ans en tout en Amérique du Sud et voyagea durant cette période en Amazonie, en Terre de Feu, au Pérou, en Bolivie, Colombie, au Mexique et en Amérique du Nord.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les œuvres de ses premières années sont surtout des romans d'évasion ; plus tard, elle s'attache à des thèmes sociaux, par exemple la menace nucléaire. Elle s'intéresse aux problèmes du Tiers Monde dont elle a pris conscience en Amérique latine. En outre, elle s'engage pour la paix et la protection de l'environnement. Dans quelques-uns de ses ouvrages aujourd'hui très controversés, elle parle de l'« écocide » de la société et compare les dangers résultant de l'énergie nucléaire au national-socialisme. Ayant pris sa retraite en 1989, elle a depuis lors tout loisir de se consacrer à l'écriture.
 Au total, elle a écrit 86 livres, qui furent distingués par de nombreux prix et qui tournent souvent autour des thèmes de la paix et de la protection de l'environnement. Écrits dans la mouvance pacifiste et écologiste des années 80, ils sont marqués par l'esprit du temps de ces mouvements, et dénoncent donc les dérives des forces de l'ordre de France et d'Allemagne. Par exemple, dans Die Wolke, les gendarment procèdent à des tirs dans la foule et répression mortelle des manifestations.
@@ -576,7 +592,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1977 : Buxtehuder Bulle pour Die Not der Familie Caldera (littérature enfantine)
 1981 : La vache qui lit pour Ich habe Hunger - ich habe Durst [J'ai faim, j'ai soif]
@@ -615,7 +633,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Rio Amargo (roman, 1959)
@@ -692,7 +712,9 @@
           <t>Traductions en espéranto</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Nora Caragea (trad. et éd.), La avo en la cxareto, Francfort-sur-le-Main, Caragea, 1999, 62 p.  (ISBN 3-00-004992-4), nombreuses illustrations d'Inge Steineke
 Nora Caragea (trad.), Inge Steineke (ill.), La infanoj en la arboj, Maribor, Inter-Kulturo, 1995, 62 p.  (ISBN 961-6075-10-1), nombreuses illustrations
@@ -725,7 +747,9 @@
           <t>Adaptation au cinéma</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2006 : Die Wolke</t>
         </is>
